--- a/Data/Web UI/DataFile.xlsx
+++ b/Data/Web UI/DataFile.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonStudio\KatalonSamplePoc\SampleProjectGit\Data\Web UI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GmailAccount" sheetId="1" r:id="rId1"/>
     <sheet name="NewEmail" sheetId="2" r:id="rId2"/>
     <sheet name="sqlQueries" sheetId="4" r:id="rId3"/>
     <sheet name="UserSampleData" sheetId="5" r:id="rId4"/>
+    <sheet name="Login" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>katalongetstartedproject@gmail.com</t>
   </si>
@@ -30,9 +36,6 @@
     <t>Katalon sample script - Getting started with WebUI testing</t>
   </si>
   <si>
-    <t>Welcome to Katalon Studio</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -90,7 +93,52 @@
     <t>DELETE FROM users WHERE FirstName = '%s' AND LastName = '%s' AND Password = '%s' AND Location = '%s'</t>
   </si>
   <si>
-    <t>kms@katalon2016</t>
+    <t>kms@katalon20161w</t>
+  </si>
+  <si>
+    <t>Welcome to Katalon Studio11</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>ThisIsNotAPassword</t>
+  </si>
+  <si>
+    <t>John Doe1</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>John Doe2</t>
+  </si>
+  <si>
+    <t>John Doe3</t>
+  </si>
+  <si>
+    <t>John Doe4</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
   </si>
 </sst>
 </file>
@@ -419,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,22 +477,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -452,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +518,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +530,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -524,24 +572,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -564,19 +612,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,16 +632,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -602,4 +650,89 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>